--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-09T00:03:23+00:00</t>
+    <t>2021-12-09T17:37:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-09T17:37:25+00:00</t>
+    <t>2021-12-09T21:10:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-09T21:10:46+00:00</t>
+    <t>2021-12-10T17:02:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>BC Birth Date history</t>
+    <t>BC Birth Date History</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T17:02:58+00:00</t>
+    <t>2021-12-10T22:55:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T22:55:51+00:00</t>
+    <t>2021-12-13T17:09:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T17:09:25+00:00</t>
+    <t>2021-12-13T17:28:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1559,7 +1559,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>106</v>
       </c>
@@ -1569,13 +1569,13 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>75</v>
@@ -2063,7 +2063,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>106</v>
       </c>
@@ -2073,13 +2073,13 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>75</v>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T17:28:44+00:00</t>
+    <t>2021-12-13T18:05:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T18:05:39+00:00</t>
+    <t>2021-12-13T18:53:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T18:53:22+00:00</t>
+    <t>2022-01-13T21:54:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-13T21:54:20+00:00</t>
+    <t>2022-01-13T21:55:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-13T21:55:58+00:00</t>
+    <t>2022-01-13T22:56:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-13T22:56:00+00:00</t>
+    <t>2022-01-14T19:25:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$17</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="119">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-14T19:25:17+00:00</t>
+    <t>2022-02-14T21:52:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -367,6 +367,19 @@
   <si>
     <t xml:space="preserve">date
 </t>
+  </si>
+  <si>
+    <t>sourceID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-sourceId-extension}
+</t>
+  </si>
+  <si>
+    <t>BC SourceID and UserID</t>
+  </si>
+  <si>
+    <t>Identifiers for the source and user that modified the specific element that this extension is on.</t>
   </si>
   <si>
     <t>base64Binary
@@ -698,7 +711,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ16"/>
+  <dimension ref="A1:AJ17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2163,23 +2176,25 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="C15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>75</v>
@@ -2188,24 +2203,22 @@
         <v>75</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="R15" t="s" s="2">
         <v>75</v>
@@ -2247,27 +2260,27 @@
         <v>75</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>105</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2275,10 +2288,10 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>75</v>
@@ -2290,22 +2303,24 @@
         <v>75</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="R16" t="s" s="2">
         <v>75</v>
@@ -2347,10 +2362,10 @@
         <v>75</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>81</v>
@@ -2359,14 +2374,114 @@
         <v>75</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>105</v>
       </c>
     </row>
+    <row r="17" hidden="true">
+      <c r="A17" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="Q17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AJ16">
+  <autoFilter ref="A1:AJ17">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2376,7 +2491,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI15">
+  <conditionalFormatting sqref="A2:AI16">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T21:52:54+00:00</t>
+    <t>2022-02-22T22:51:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$13</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="121">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T22:51:29+00:00</t>
+    <t>2022-03-01T16:19:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -314,6 +314,19 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-business-period-extension}
+</t>
+  </si>
+  <si>
+    <t>BC Business Dates</t>
+  </si>
+  <si>
+    <t>The effective dates for the parent element.</t>
+  </si>
+  <si>
+    <t>birthDate</t>
+  </si>
+  <si>
     <t>Extension.extension.id</t>
   </si>
   <si>
@@ -345,7 +358,7 @@
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Period
+    <t xml:space="preserve">date
 </t>
   </si>
   <si>
@@ -359,13 +372,6 @@
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>birthDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date
 </t>
   </si>
   <si>
@@ -711,7 +717,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ17"/>
+  <dimension ref="A1:AJ13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1195,13 +1201,13 @@
         <v>75</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1270,23 +1276,25 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="C6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>75</v>
@@ -1295,13 +1303,13 @@
         <v>75</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1352,27 +1360,27 @@
         <v>75</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1383,7 +1391,7 @@
         <v>76</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>75</v>
@@ -1395,13 +1403,13 @@
         <v>75</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1440,39 +1448,39 @@
         <v>75</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AC7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1480,10 +1488,10 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>75</v>
@@ -1495,24 +1503,22 @@
         <v>75</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="R8" t="s" s="2">
         <v>75</v>
@@ -1542,39 +1548,39 @@
         <v>75</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="AC8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1588,7 +1594,7 @@
         <v>81</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>75</v>
@@ -1597,22 +1603,24 @@
         <v>75</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="K9" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R9" t="s" s="2">
         <v>75</v>
@@ -1654,10 +1662,10 @@
         <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>81</v>
@@ -1666,19 +1674,17 @@
         <v>75</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
         <v>75</v>
       </c>
@@ -1699,13 +1705,13 @@
         <v>75</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1756,29 +1762,31 @@
         <v>75</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" hidden="true">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="B11" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="C11" t="s" s="2">
         <v>75</v>
       </c>
@@ -1790,7 +1798,7 @@
         <v>81</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>75</v>
@@ -1799,13 +1807,13 @@
         <v>75</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1856,27 +1864,27 @@
         <v>75</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1884,10 +1892,10 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>75</v>
@@ -1899,22 +1907,24 @@
         <v>75</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="M12" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="R12" t="s" s="2">
         <v>75</v>
@@ -1944,39 +1954,39 @@
         <v>75</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>75</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1984,10 +1994,10 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>75</v>
@@ -1999,24 +2009,22 @@
         <v>75</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>75</v>
@@ -2058,10 +2066,10 @@
         <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>81</v>
@@ -2070,418 +2078,14 @@
         <v>75</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="F14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G14" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="K14" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L14" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G15" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="K15" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" hidden="true">
-      <c r="A16" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="F16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="R16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" hidden="true">
-      <c r="A17" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="K17" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>105</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ17">
+  <autoFilter ref="A1:AJ13">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2491,7 +2095,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI16">
+  <conditionalFormatting sqref="A2:AI12">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-01T16:19:31+00:00</t>
+    <t>2022-03-07T20:54:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T20:54:41+00:00</t>
+    <t>2022-03-07T21:23:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T21:23:32+00:00</t>
+    <t>2022-03-07T23:08:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T23:08:33+00:00</t>
+    <t>2022-03-07T23:35:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T23:35:33+00:00</t>
+    <t>2022-03-14T20:50:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-14T20:50:06+00:00</t>
+    <t>2022-03-18T18:31:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T18:31:40+00:00</t>
+    <t>2022-03-25T22:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T22:02:43+00:00</t>
+    <t>2022-03-29T20:42:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T20:42:47+00:00</t>
+    <t>2022-04-01T14:00:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-01T14:00:38+00:00</t>
+    <t>2022-04-04T20:52:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-04T20:52:49+00:00</t>
+    <t>2022-04-05T16:12:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T16:12:45+00:00</t>
+    <t>2022-04-05T17:59:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T17:59:30+00:00</t>
+    <t>2022-04-18T22:34:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T22:34:02+00:00</t>
+    <t>2022-04-19T16:13:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T16:13:11+00:00</t>
+    <t>2022-04-20T20:38:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T20:38:51+00:00</t>
+    <t>2022-05-17T18:05:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T18:05:03+00:00</t>
+    <t>2022-06-06T16:35:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T16:35:02+00:00</t>
+    <t>2022-06-06T19:02:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T19:02:23+00:00</t>
+    <t>2022-06-06T20:42:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T20:42:46+00:00</t>
+    <t>2022-06-14T16:27:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-14T16:27:05+00:00</t>
+    <t>2022-07-12T18:21:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -729,39 +729,39 @@
     <col min="1" max="1" width="29.1484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="14.37109375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="37.171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="37.17578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.18359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-12T18:21:32+00:00</t>
+    <t>2022-07-13T16:07:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-13T16:07:41+00:00</t>
+    <t>2022-07-20T21:33:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T21:33:26+00:00</t>
+    <t>2022-07-20T21:53:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T21:53:07+00:00</t>
+    <t>2022-07-20T21:57:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T21:57:20+00:00</t>
+    <t>2022-07-25T23:14:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T13:19:23+00:00</t>
+    <t>2022-07-26T13:53:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T13:53:56+00:00</t>
+    <t>2022-07-26T20:21:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:21:45+00:00</t>
+    <t>2022-07-26T20:30:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:30:24+00:00</t>
+    <t>2022-07-26T20:32:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:32:00+00:00</t>
+    <t>2022-07-26T20:38:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:38:10+00:00</t>
+    <t>2022-07-26T20:48:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:48:14+00:00</t>
+    <t>2022-07-26T20:53:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:53:01+00:00</t>
+    <t>2022-07-26T20:56:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:56:12+00:00</t>
+    <t>2022-07-26T20:57:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:57:39+00:00</t>
+    <t>2022-07-26T21:21:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:21:24+00:00</t>
+    <t>2022-07-26T21:40:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:40:22+00:00</t>
+    <t>2022-07-26T21:41:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:41:29+00:00</t>
+    <t>2022-07-26T21:42:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:42:01+00:00</t>
+    <t>2022-07-26T21:42:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:42:43+00:00</t>
+    <t>2022-07-26T21:43:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:43:18+00:00</t>
+    <t>2022-08-15T19:44:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T19:44:05+00:00</t>
+    <t>2022-08-15T20:51:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T20:51:57+00:00</t>
+    <t>2022-08-16T21:28:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-16T21:28:14+00:00</t>
+    <t>2022-08-23T21:30:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T21:30:49+00:00</t>
+    <t>2022-09-08T16:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:47:29+00:00</t>
+    <t>2022-09-08T16:52:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:52:01+00:00</t>
+    <t>2022-09-08T20:49:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T20:49:17+00:00</t>
+    <t>2022-09-08T22:16:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T22:16:21+00:00</t>
+    <t>2022-09-20T22:52:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-20T22:52:25+00:00</t>
+    <t>2022-09-21T21:21:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-21T21:21:33+00:00</t>
+    <t>2022-09-22T20:32:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T20:32:21+00:00</t>
+    <t>2022-10-04T16:21:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-04T16:21:03+00:00</t>
+    <t>2022-10-05T16:43:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-05T16:43:24+00:00</t>
+    <t>2022-10-05T17:01:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-05T17:01:44+00:00</t>
+    <t>2022-10-14T20:19:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -256,56 +256,56 @@
 </t>
   </si>
   <si>
+    <t>Extension.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Extension.extension</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Extension.id</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Extension.extension</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>businessDates</t>
@@ -968,7 +968,7 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>75</v>
@@ -976,7 +976,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -987,25 +987,25 @@
         <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1056,13 +1056,13 @@
         <v>75</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>75</v>
@@ -1071,12 +1071,12 @@
         <v>75</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>77</v>
@@ -1099,13 +1099,13 @@
         <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>30</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1144,19 +1144,19 @@
         <v>75</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AC4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>76</v>
@@ -1168,7 +1168,7 @@
         <v>75</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>75</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>95</v>
@@ -1186,10 +1186,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>96</v>
@@ -1258,7 +1258,7 @@
         <v>75</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>76</v>
@@ -1270,7 +1270,7 @@
         <v>75</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>75</v>
@@ -1278,7 +1278,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s" s="2">
         <v>100</v>
@@ -1288,10 +1288,10 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>96</v>
@@ -1303,13 +1303,13 @@
         <v>75</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>30</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1360,7 +1360,7 @@
         <v>75</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>76</v>
@@ -1372,7 +1372,7 @@
         <v>75</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>75</v>
@@ -1391,25 +1391,25 @@
         <v>76</v>
       </c>
       <c r="F7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J7" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J7" t="s" s="2">
+      <c r="K7" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1460,13 +1460,13 @@
         <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>75</v>
@@ -1475,7 +1475,7 @@
         <v>75</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" hidden="true">
@@ -1503,13 +1503,13 @@
         <v>75</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s" s="2">
         <v>30</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1548,19 +1548,19 @@
         <v>75</v>
       </c>
       <c r="AA8" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB8" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AB8" t="s" s="2">
+      <c r="AC8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD8" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AC8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD8" t="s" s="2">
+      <c r="AE8" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>76</v>
@@ -1572,7 +1572,7 @@
         <v>75</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>75</v>
@@ -1588,10 +1588,10 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>75</v>
@@ -1665,10 +1665,10 @@
         <v>108</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>75</v>
@@ -1690,10 +1690,10 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>96</v>
@@ -1768,7 +1768,7 @@
         <v>76</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>75</v>
@@ -1782,7 +1782,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>116</v>
@@ -1795,7 +1795,7 @@
         <v>76</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>96</v>
@@ -1864,7 +1864,7 @@
         <v>75</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
@@ -1876,7 +1876,7 @@
         <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>75</v>
@@ -1892,10 +1892,10 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>75</v>
@@ -1969,10 +1969,10 @@
         <v>108</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>75</v>
@@ -2072,7 +2072,7 @@
         <v>76</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>75</v>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-14T20:19:28+00:00</t>
+    <t>2022-11-09T18:06:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-09T18:06:00+00:00</t>
+    <t>2022-11-09T18:16:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-09T18:16:12+00:00</t>
+    <t>2022-11-14T18:26:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T18:26:34+00:00</t>
+    <t>2022-11-14T19:03:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T19:03:53+00:00</t>
+    <t>2022-11-30T18:54:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T18:54:03+00:00</t>
+    <t>2022-11-30T20:29:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T20:29:42+00:00</t>
+    <t>2022-12-01T22:48:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$13</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="129">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T22:48:36+00:00</t>
+    <t>2022-12-19T23:56:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>element:Element</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Path</t>
@@ -308,6 +311,9 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>Extension.extension:businessDates</t>
+  </si>
+  <si>
     <t>businessDates</t>
   </si>
   <si>
@@ -324,13 +330,25 @@
     <t>The effective dates for the parent element.</t>
   </si>
   <si>
+    <t>Extension.extension:birthDate</t>
+  </si>
+  <si>
     <t>birthDate</t>
   </si>
   <si>
+    <t>Extension.extension:birthDate.id</t>
+  </si>
+  <si>
     <t>Extension.extension.id</t>
   </si>
   <si>
+    <t>Extension.extension:birthDate.extension</t>
+  </si>
+  <si>
     <t>Extension.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:birthDate.url</t>
   </si>
   <si>
     <t>Extension.extension.url</t>
@@ -355,6 +373,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Extension.extension:birthDate.value[x]</t>
+  </si>
+  <si>
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
@@ -373,6 +394,9 @@
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
+  </si>
+  <si>
+    <t>Extension.extension:sourceID</t>
   </si>
   <si>
     <t>sourceID</t>
@@ -717,7 +741,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ13"/>
+  <dimension ref="A1:AK13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -726,42 +750,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="29.1484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.37109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.45703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="29.1484375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.37109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="37.17578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="19.625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -873,93 +897,96 @@
       <c r="AJ1" t="s" s="1">
         <v>74</v>
       </c>
+      <c r="AK1" t="s" s="1">
+        <v>75</v>
+      </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="B2" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L2" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF2" t="s" s="2">
         <v>30</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>77</v>
@@ -968,38 +995,41 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AK2" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K3" t="s" s="2">
         <v>82</v>
@@ -1007,403 +1037,415 @@
       <c r="L3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="M3" s="2"/>
+      <c r="M3" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>86</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
         <v>87</v>
       </c>
+      <c r="B4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="L4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="M4" s="2"/>
+      <c r="M4" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK4" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" hidden="true">
+      <c r="A5" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF5" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G5" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J5" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K5" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK5" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" hidden="true">
+      <c r="A6" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G6" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>82</v>
@@ -1411,681 +1453,702 @@
       <c r="L7" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="M7" s="2"/>
+      <c r="M7" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>86</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="L8" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="M8" s="2"/>
+      <c r="M8" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="AB8" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE8" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J9" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="K9" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N9" s="2"/>
-      <c r="O9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="R9" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="S9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>76</v>
+      </c>
+      <c r="AK9" t="s" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="M10" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="N10" s="2"/>
-      <c r="O10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AK10" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AJ10" t="s" s="2">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11">
+    </row>
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="M11" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>127</v>
+      </c>
       <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="R12" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="S12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>115</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="K13" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AJ13" t="s" s="2">
-        <v>109</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ13">
+  <autoFilter ref="A1:AK13">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="130">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-19T23:56:39+00:00</t>
+    <t>2023-01-30T21:25:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -253,6 +253,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -929,7 +933,7 @@
         <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>9</v>
@@ -995,7 +999,7 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>76</v>
@@ -1006,10 +1010,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1020,7 +1024,7 @@
         <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>76</v>
@@ -1032,13 +1036,13 @@
         <v>76</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1089,13 +1093,13 @@
         <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>76</v>
@@ -1104,15 +1108,15 @@
         <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1120,7 +1124,7 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>78</v>
@@ -1135,13 +1139,13 @@
         <v>76</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>30</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1180,19 +1184,19 @@
         <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>77</v>
@@ -1204,7 +1208,7 @@
         <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>76</v>
@@ -1212,26 +1216,26 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>76</v>
@@ -1240,13 +1244,13 @@
         <v>76</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1297,7 +1301,7 @@
         <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
@@ -1309,7 +1313,7 @@
         <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>76</v>
@@ -1317,26 +1321,26 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>76</v>
@@ -1345,13 +1349,13 @@
         <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s" s="2">
         <v>30</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1402,7 +1406,7 @@
         <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
@@ -1414,7 +1418,7 @@
         <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>76</v>
@@ -1422,10 +1426,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1436,7 +1440,7 @@
         <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>76</v>
@@ -1448,13 +1452,13 @@
         <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1505,13 +1509,13 @@
         <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>76</v>
@@ -1520,15 +1524,15 @@
         <v>76</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1551,13 +1555,13 @@
         <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s" s="2">
         <v>30</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1596,19 +1600,19 @@
         <v>76</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AD8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
@@ -1620,7 +1624,7 @@
         <v>76</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>76</v>
@@ -1628,10 +1632,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1639,10 +1643,10 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>76</v>
@@ -1654,16 +1658,16 @@
         <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -1671,7 +1675,7 @@
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="S9" t="s" s="2">
         <v>76</v>
@@ -1713,13 +1717,13 @@
         <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>76</v>
@@ -1728,15 +1732,15 @@
         <v>76</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1744,13 +1748,13 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>76</v>
@@ -1759,13 +1763,13 @@
         <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1816,33 +1820,33 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>76</v>
@@ -1852,10 +1856,10 @@
         <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>76</v>
@@ -1864,13 +1868,13 @@
         <v>76</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1921,7 +1925,7 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -1933,7 +1937,7 @@
         <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>76</v>
@@ -1941,10 +1945,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -1952,10 +1956,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>76</v>
@@ -1967,16 +1971,16 @@
         <v>76</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2026,13 +2030,13 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>76</v>
@@ -2041,15 +2045,15 @@
         <v>76</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2072,13 +2076,13 @@
         <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2129,22 +2133,22 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T21:25:21+00:00</t>
+    <t>2023-01-30T21:26:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T21:26:21+00:00</t>
+    <t>2023-02-01T18:07:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T18:07:18+00:00</t>
+    <t>2023-02-01T18:22:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T18:22:44+00:00</t>
+    <t>2023-02-02T00:15:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T00:15:50+00:00</t>
+    <t>2023-02-02T17:38:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T17:38:38+00:00</t>
+    <t>2023-02-07T22:10:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-07T22:10:03+00:00</t>
+    <t>2023-02-08T18:25:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T18:25:04+00:00</t>
+    <t>2023-02-09T00:02:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T00:02:02+00:00</t>
+    <t>2023-02-09T00:02:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T00:02:19+00:00</t>
+    <t>2023-02-17T22:47:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T22:47:47+00:00</t>
+    <t>2023-02-17T23:20:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T23:20:35+00:00</t>
+    <t>2023-02-21T21:28:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T21:28:27+00:00</t>
+    <t>2023-02-21T21:29:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T21:29:24+00:00</t>
+    <t>2023-04-17T21:31:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$12</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="93">
   <si>
     <t>Property</t>
   </si>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T21:31:48+00:00</t>
+    <t>2023-06-28T23:19:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -133,117 +133,6 @@
   </si>
   <si>
     <t>element:Element</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t/>
@@ -539,10 +428,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -745,7 +634,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK13"/>
+  <dimension ref="A1:AK12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -757,1402 +646,1287 @@
     <col min="1" max="1" width="38.45703125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="29.1484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.37109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="19.625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="4.2890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>39</v>
-      </c>
-      <c r="B1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="G1" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="L1" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="F1" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="G1" t="s" s="1">
-        <v>45</v>
-      </c>
-      <c r="H1" t="s" s="1">
-        <v>46</v>
-      </c>
-      <c r="I1" t="s" s="1">
-        <v>47</v>
-      </c>
-      <c r="J1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>75</v>
+      <c r="AJ1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK1" t="s" s="2">
+        <v>39</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>76</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>87</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="D4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>76</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>87</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="N8" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="G8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K8" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G9" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K9" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="L9" t="s" s="2">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>116</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>88</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>122</v>
+        <v>58</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>116</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>125</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="N11" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="G11" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" hidden="true">
-      <c r="A13" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K13" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="2"/>
-      <c r="R13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>116</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK13">
+  <autoFilter ref="A1:AK12">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2162,7 +1936,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI12">
+  <conditionalFormatting sqref="A2:AI11">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-28T23:19:40+00:00</t>
+    <t>2023-07-28T15:45:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T15:45:10+00:00</t>
+    <t>2023-07-28T16:00:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T16:00:21+00:00</t>
+    <t>2023-07-28T16:52:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T16:52:29+00:00</t>
+    <t>2023-08-14T17:02:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-14T17:02:44+00:00</t>
+    <t>2023-08-14T17:37:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-14T17:37:04+00:00</t>
+    <t>2023-09-14T16:14:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -152,6 +152,10 @@
 </t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>Extension.id</t>
   </si>
   <si>
@@ -198,10 +202,6 @@
   </si>
   <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Extension.extension:businessDates</t>
@@ -776,7 +776,7 @@
         <v>43</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AK1" t="s" s="2">
         <v>39</v>
@@ -784,10 +784,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -798,7 +798,7 @@
         <v>40</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>39</v>
@@ -810,13 +810,13 @@
         <v>39</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -867,13 +867,13 @@
         <v>39</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>39</v>
@@ -882,15 +882,15 @@
         <v>39</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -898,7 +898,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>41</v>
@@ -913,13 +913,13 @@
         <v>39</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s" s="2">
         <v>30</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -958,19 +958,19 @@
         <v>39</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD3" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>40</v>
@@ -982,7 +982,7 @@
         <v>39</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>39</v>
@@ -993,7 +993,7 @@
         <v>60</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>61</v>
@@ -1003,10 +1003,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>62</v>
@@ -1075,7 +1075,7 @@
         <v>39</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>40</v>
@@ -1087,7 +1087,7 @@
         <v>39</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>39</v>
@@ -1098,7 +1098,7 @@
         <v>66</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>67</v>
@@ -1108,10 +1108,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>62</v>
@@ -1123,13 +1123,13 @@
         <v>39</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L5" t="s" s="2">
         <v>30</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1180,7 +1180,7 @@
         <v>39</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>40</v>
@@ -1192,7 +1192,7 @@
         <v>39</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>39</v>
@@ -1214,7 +1214,7 @@
         <v>40</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>39</v>
@@ -1226,13 +1226,13 @@
         <v>39</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1283,13 +1283,13 @@
         <v>39</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>39</v>
@@ -1298,7 +1298,7 @@
         <v>39</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" hidden="true">
@@ -1329,13 +1329,13 @@
         <v>39</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>30</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1374,19 +1374,19 @@
         <v>39</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD7" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>40</v>
@@ -1398,7 +1398,7 @@
         <v>39</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>39</v>
@@ -1417,10 +1417,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>39</v>
@@ -1494,10 +1494,10 @@
         <v>78</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>39</v>
@@ -1522,10 +1522,10 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>62</v>
@@ -1600,7 +1600,7 @@
         <v>40</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>39</v>
@@ -1617,7 +1617,7 @@
         <v>87</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>88</v>
@@ -1630,7 +1630,7 @@
         <v>40</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>62</v>
@@ -1699,7 +1699,7 @@
         <v>39</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>40</v>
@@ -1711,7 +1711,7 @@
         <v>39</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>39</v>
@@ -1730,10 +1730,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>39</v>
@@ -1807,10 +1807,10 @@
         <v>78</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>39</v>
@@ -1913,7 +1913,7 @@
         <v>40</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>39</v>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-14T16:14:11+00:00</t>
+    <t>2023-10-18T23:27:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T23:27:00+00:00</t>
+    <t>2023-10-20T17:32:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T17:32:48+00:00</t>
+    <t>2023-10-20T21:39:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T21:39:43+00:00</t>
+    <t>2023-10-25T21:08:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$13</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="130">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-25T21:08:14+00:00</t>
+    <t>2024-01-19T19:46:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -133,6 +133,117 @@
   </si>
   <si>
     <t>element:Element</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t/>
@@ -634,7 +745,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK12"/>
+  <dimension ref="A1:AK13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -646,1287 +757,1402 @@
     <col min="1" max="1" width="38.45703125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="29.1484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.37109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="19.625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="4.2890625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="L1" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="AK1" t="s" s="2">
-        <v>39</v>
+      <c r="G1" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="I1" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="J1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>75</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>51</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>39</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>61</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="C6" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="D6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>51</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>39</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="AF8" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH8" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AG8" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="AI8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>79</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>88</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>39</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>125</v>
+      </c>
       <c r="D11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH11" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AG11" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="AI11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>79</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" hidden="true">
+      <c r="A13" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK12">
+  <autoFilter ref="A1:AK13">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -1936,7 +2162,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI11">
+  <conditionalFormatting sqref="A2:AI12">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T19:46:50+00:00</t>
+    <t>2024-01-29T03:29:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T03:29:58+00:00</t>
+    <t>2024-01-29T15:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T15:29:51+00:00</t>
+    <t>2024-01-30T22:14:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T22:14:57+00:00</t>
+    <t>2024-01-30T22:36:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T22:36:39+00:00</t>
+    <t>2024-02-05T17:54:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T17:54:19+00:00</t>
+    <t>2024-02-22T21:56:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T21:56:41+00:00</t>
+    <t>2024-02-22T22:07:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T22:07:28+00:00</t>
+    <t>2024-03-08T19:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-08T19:30:19+00:00</t>
+    <t>2024-03-25T22:09:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T22:09:10+00:00</t>
+    <t>2024-04-16T20:55:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>BC Ministry of Health (https://www2.gov.bc.ca/gov/content/governments/organizational-structure/ministries-organizations/ministries/health)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -132,7 +132,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:Patient.birthDate</t>
   </si>
   <si>
     <t>ID</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T20:55:14+00:00</t>
+    <t>2024-04-16T21:07:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T21:07:01+00:00</t>
+    <t>2024-04-23T21:08:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-23T21:08:53+00:00</t>
+    <t>2024-04-26T16:50:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-26T16:50:56+00:00</t>
+    <t>2024-04-28T02:00:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-28T02:00:16+00:00</t>
+    <t>2024-05-03T17:46:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T17:46:35+00:00</t>
+    <t>2024-05-03T18:19:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T18:19:03+00:00</t>
+    <t>2024-05-03T21:10:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T21:10:00+00:00</t>
+    <t>2024-05-03T21:38:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T21:38:12+00:00</t>
+    <t>2024-05-14T21:02:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-birthdate-history-extension.xlsx
+++ b/StructureDefinition-bc-birthdate-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-14T21:02:37+00:00</t>
+    <t>2024-06-07T23:38:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
